--- a/results_colab/runtimes_no_search.xlsx
+++ b/results_colab/runtimes_no_search.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44.31450271606445</v>
+        <v>52.0370991230011</v>
       </c>
       <c r="B2" t="n">
-        <v>16.15448331832886</v>
+        <v>50.3656177520752</v>
       </c>
       <c r="C2" t="n">
-        <v>8.498712301254272</v>
+        <v>8.682495832443237</v>
       </c>
       <c r="D2" t="n">
-        <v>12.28283715248108</v>
+        <v>17.76827049255371</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -481,16 +481,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93.91293025016785</v>
+        <v>135.5751173496246</v>
       </c>
       <c r="B3" t="n">
-        <v>25.98687434196472</v>
+        <v>199.3462336063385</v>
       </c>
       <c r="C3" t="n">
-        <v>6.043923139572144</v>
+        <v>10.06976366043091</v>
       </c>
       <c r="D3" t="n">
-        <v>9.269178628921509</v>
+        <v>18.02263808250427</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -500,16 +500,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35.58740568161011</v>
+        <v>38.15235161781311</v>
       </c>
       <c r="B4" t="n">
-        <v>14.75752830505371</v>
+        <v>61.09102964401245</v>
       </c>
       <c r="C4" t="n">
-        <v>8.741726875305176</v>
+        <v>7.977405786514282</v>
       </c>
       <c r="D4" t="n">
-        <v>10.77190613746643</v>
+        <v>15.25071573257446</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -519,16 +519,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43.68918323516846</v>
+        <v>84.50184178352356</v>
       </c>
       <c r="B5" t="n">
-        <v>10.28539323806763</v>
+        <v>32.64775466918945</v>
       </c>
       <c r="C5" t="n">
-        <v>1.803895235061646</v>
+        <v>5.094048023223877</v>
       </c>
       <c r="D5" t="n">
-        <v>6.329366207122803</v>
+        <v>16.10633516311646</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -538,16 +538,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59.37695837020874</v>
+        <v>84.64412069320679</v>
       </c>
       <c r="B6" t="n">
-        <v>29.94778490066528</v>
+        <v>66.65805077552795</v>
       </c>
       <c r="C6" t="n">
-        <v>13.89197707176208</v>
+        <v>16.42977380752563</v>
       </c>
       <c r="D6" t="n">
-        <v>201.20152592659</v>
+        <v>672.990181684494</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -557,16 +557,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.06428456306458</v>
+        <v>25.34094619750977</v>
       </c>
       <c r="B7" t="n">
-        <v>9.60329532623291</v>
+        <v>45.22903490066528</v>
       </c>
       <c r="C7" t="n">
-        <v>4.736204862594604</v>
+        <v>6.02359676361084</v>
       </c>
       <c r="D7" t="n">
-        <v>91.05774855613708</v>
+        <v>294.3282012939453</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -576,37 +576,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>611.7450299263</v>
+        <v>311.8839828968048</v>
       </c>
       <c r="B8" t="n">
-        <v>194.8056628704071</v>
+        <v>332.9332964420319</v>
       </c>
       <c r="C8" t="n">
-        <v>80.71065497398376</v>
+        <v>157.5405130386353</v>
       </c>
       <c r="D8" t="n">
-        <v>585.4950125217438</v>
+        <v>270.7927403450012</v>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>weather</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>63.30537152290344</v>
-      </c>
-      <c r="B9" t="n">
-        <v>31.85226249694824</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26.06875467300415</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32.12369823455811</v>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>IMDB reviews</t>
         </is>
